--- a/Meta-analysis/Papers/experimental_details.xlsx
+++ b/Meta-analysis/Papers/experimental_details.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7705234b56963337/Breathless/Code/Packets/physoxiaMizer/Meta-analysis/Papers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{644F4089-BDC2-4FBC-8BC0-09E140489173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66485F5B-82A1-7D42-B677-BB342A555893}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{644F4089-BDC2-4FBC-8BC0-09E140489173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3B5FBAA-83E8-4947-9EC8-36A6E7CD47F4}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="23260" windowHeight="12460" xr2:uid="{CB19A65D-C4F7-4F44-8EC4-4600C0966B14}"/>
+    <workbookView xWindow="-200" yWindow="760" windowWidth="19740" windowHeight="12460" xr2:uid="{CB19A65D-C4F7-4F44-8EC4-4600C0966B14}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="79">
   <si>
     <t>DOI</t>
   </si>
@@ -245,10 +245,34 @@
     <t>John Fleng Steffensen</t>
   </si>
   <si>
-    <t>EmailSent</t>
-  </si>
-  <si>
-    <t>Response</t>
+    <t>DataOrigin</t>
+  </si>
+  <si>
+    <t>Figure 2</t>
+  </si>
+  <si>
+    <t>Figure 1</t>
+  </si>
+  <si>
+    <t>Figure 2,3,4</t>
+  </si>
+  <si>
+    <t>Figure 1,3a,4</t>
+  </si>
+  <si>
+    <t>Figure 2b</t>
+  </si>
+  <si>
+    <t>Figure 3e</t>
+  </si>
+  <si>
+    <t>Table 2</t>
+  </si>
+  <si>
+    <t>Table 3</t>
+  </si>
+  <si>
+    <t>Figure 4, Table 1</t>
   </si>
 </sst>
 </file>
@@ -624,13 +648,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFC554A6-7B84-4058-8113-AB9EBA365BB9}">
-  <dimension ref="A1:Y11"/>
+  <dimension ref="A1:X11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A8" sqref="A8:XFD8"/>
+      <selection pane="bottomRight" activeCell="X3" sqref="X3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -650,7 +674,7 @@
     <col min="18" max="18" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -723,11 +747,8 @@
       <c r="X1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="Y1" s="1" t="s">
-        <v>70</v>
-      </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -800,10 +821,10 @@
         <v>54</v>
       </c>
       <c r="X2" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -877,10 +898,10 @@
         <v>56</v>
       </c>
       <c r="X3" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -954,10 +975,10 @@
         <v>58</v>
       </c>
       <c r="X4" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -1033,10 +1054,10 @@
         <v>60</v>
       </c>
       <c r="X5" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -1112,10 +1133,10 @@
         <v>62</v>
       </c>
       <c r="X6" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -1186,10 +1207,10 @@
         <v>66</v>
       </c>
       <c r="X7" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -1264,10 +1285,10 @@
         <v>58</v>
       </c>
       <c r="X8" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -1342,10 +1363,10 @@
         <v>58</v>
       </c>
       <c r="X9" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>47</v>
       </c>
@@ -1420,10 +1441,10 @@
         <v>64</v>
       </c>
       <c r="X10" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>51</v>
       </c>
@@ -1493,7 +1514,7 @@
         <v>67</v>
       </c>
       <c r="X11" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
